--- a/reports/docReportDeviceByPerson.xlsx
+++ b/reports/docReportDeviceByPerson.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Список оборудования по сотруднику: Котлярова Наталья Дмитриевна (Сотрудник)</t>
+    <t>Список оборудования по сотруднику: Аликин Олег Сергеевич (Сотрудник)</t>
   </si>
   <si>
     <t>Модель</t>
@@ -26,46 +26,19 @@
     <t>Системные блоки</t>
   </si>
   <si>
-    <t>не указано SVEGA-Economic</t>
+    <t>Kraftway KD-400T-MN</t>
   </si>
   <si>
-    <t>КГ1101040348</t>
-  </si>
-  <si>
-    <t>не указано Kraftway Credo KC43</t>
-  </si>
-  <si>
-    <t>КГ1013400588</t>
+    <t>226446724626</t>
   </si>
   <si>
     <t>Мониторы</t>
   </si>
   <si>
-    <t>Philips 223V5LSB</t>
+    <t>LG 24GS60F-B</t>
   </si>
   <si>
-    <t>не указано Dell 22" P2213</t>
-  </si>
-  <si>
-    <t>КГ1013400580</t>
-  </si>
-  <si>
-    <t>Телефоны</t>
-  </si>
-  <si>
-    <t>Unify OpenScape Desk Phone IP 35G Eco</t>
-  </si>
-  <si>
-    <t>КГ1013400650</t>
-  </si>
-  <si>
-    <t>Сканеры</t>
-  </si>
-  <si>
-    <t>не указано Avision AV1860</t>
-  </si>
-  <si>
-    <t>КГ1101040532</t>
+    <t>235223523523</t>
   </si>
 </sst>
 </file>
@@ -110,7 +83,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -146,55 +119,13 @@
       <c r="A5" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>7</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s" s="0">
         <v>7</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>17</v>
+      <c r="B6" t="s" s="0">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
